--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1293261.565743904</v>
+        <v>1289248.955729912</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283204</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>255.4387978730001</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>19.68942351146579</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.86665019865811</v>
+        <v>85.77388582790053</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -873,19 +873,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>267.1758329068651</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.657500457871408</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>194.7632679152616</v>
+        <v>180.5851733500022</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>46.94048797913271</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>140.3578935194477</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>102.881258612432</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428081</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.4048731212358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881257</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.255571502167365</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833816</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.16086499484859</v>
+        <v>122.6028762599883</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756248</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514042</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>196.7867454260345</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.05846343488115</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="32">
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C37" t="n">
-        <v>134.339113733127</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.16086499484972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>132.2740511637357</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.9507379795608</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.509627919559</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D2" t="n">
-        <v>1340.243929312808</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="E2" t="n">
-        <v>954.4556767145639</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>543.4697719249564</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>128.3973217699528</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>685.8122911638649</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C4" t="n">
-        <v>516.876108235958</v>
+        <v>711.2880532342227</v>
       </c>
       <c r="D4" t="n">
-        <v>366.7594688236222</v>
+        <v>711.2880532342227</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4521,19 +4521,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.594421205412</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>906.604870307395</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.8122911638649</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686063</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>846.071687106474</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080119</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986292</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.4020639300938</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1449.047633021068</v>
+        <v>1744.88528207839</v>
       </c>
       <c r="U7" t="n">
-        <v>1159.944766146711</v>
+        <v>1455.782415204033</v>
       </c>
       <c r="V7" t="n">
-        <v>905.2602779408242</v>
+        <v>1455.782415204033</v>
       </c>
       <c r="W7" t="n">
-        <v>615.8431079038636</v>
+        <v>1455.782415204033</v>
       </c>
       <c r="X7" t="n">
-        <v>615.8431079038636</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="Y7" t="n">
-        <v>395.0505287603335</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2006.793820398077</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1637.831303457665</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.565604850915</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>268.2622120761617</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>261.3167113269582</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>250.2846652123588</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723278</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2393.393660462199</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>732.4676803942461</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>732.4676803942461</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>582.3510409819104</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>582.3510409819104</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>435.461093484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>267.7582568587189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368016</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>914.1161452244859</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111714</v>
@@ -5287,43 +5287,43 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092274</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249859</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5506,13 +5506,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111714</v>
@@ -5524,25 +5524,25 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928005</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5655,31 +5655,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5734,67 +5734,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038275</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797676</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910802</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611852</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138343</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703041</v>
       </c>
     </row>
     <row r="23">
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3118.73869457197</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>2949.802511644064</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>2799.685872231728</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.772778649335</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>2504.882831151424</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4582.346174342407</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4293.270947686605</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4038.586459480718</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3749.169289443757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3521.17973854574</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>3300.38715940221</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,25 +6445,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.530292372932</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>853.5941094450255</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>703.4774700326898</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.178757203172</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4101.537227310363</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,55 +7071,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3403484614391</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
         <v>2264.108249235165</v>
@@ -7137,10 +7137,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614391</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7189,25 +7189,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1846595309957</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>943.5102657467545</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.53722908186</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153953</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741617</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159224</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3342.53722908186</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3342.53722908186</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2510.268290553495</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3005.593896769254</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3602.972384395806</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4230.570347950413</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>538.7363435406111</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.3848083708508</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1977.461080510508</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194308</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>147.359901516045</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823101</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864953</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>134.6711151870887</v>
+        <v>57.22910392194898</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516635</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>47.43691740069059</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.61870490125375</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>75.37549921168802</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>39.70888054695408</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="C37" t="n">
-        <v>32.90770736550078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5487903941874</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>34.97276993489209</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.63391537253398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>939807.5249787413</v>
+        <v>939807.524978741</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787408</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.524978741</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.524978741</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>939807.5249787413</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787413</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140034</v>
       </c>
-      <c r="F2" t="n">
-        <v>484287.9598140036</v>
-      </c>
       <c r="G2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="K2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="L2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="K2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140036</v>
-      </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551194</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26524,46 +26524,46 @@
         <v>-1035627.579323585</v>
       </c>
       <c r="C6" t="n">
+        <v>293117.1664040074</v>
+      </c>
+      <c r="D6" t="n">
         <v>293117.1664040072</v>
       </c>
-      <c r="D6" t="n">
-        <v>293117.1664040076</v>
-      </c>
       <c r="E6" t="n">
-        <v>45366.0480009231</v>
+        <v>45018.66874656683</v>
       </c>
       <c r="F6" t="n">
-        <v>370778.5098082783</v>
+        <v>370431.1305539211</v>
       </c>
       <c r="G6" t="n">
-        <v>370778.5098082783</v>
+        <v>370431.1305539213</v>
       </c>
       <c r="H6" t="n">
-        <v>370778.5098082782</v>
+        <v>370431.1305539213</v>
       </c>
       <c r="I6" t="n">
-        <v>370778.5098082784</v>
+        <v>370431.1305539213</v>
       </c>
       <c r="J6" t="n">
-        <v>153247.3074110011</v>
+        <v>152899.9281566439</v>
       </c>
       <c r="K6" t="n">
-        <v>370778.5098082785</v>
+        <v>370431.1305539214</v>
       </c>
       <c r="L6" t="n">
-        <v>370778.5098082784</v>
+        <v>370431.1305539215</v>
       </c>
       <c r="M6" t="n">
-        <v>285723.4818727665</v>
+        <v>285376.1026184096</v>
       </c>
       <c r="N6" t="n">
-        <v>370778.5098082784</v>
+        <v>370431.1305539215</v>
       </c>
       <c r="O6" t="n">
-        <v>370778.5098082783</v>
+        <v>370431.1305539215</v>
       </c>
       <c r="P6" t="n">
-        <v>370778.5098082785</v>
+        <v>370431.1305539215</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>126.4915721992617</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>274.9183408758547</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>111.5673124479111</v>
+        <v>60.66007681866864</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>87.50720871381782</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.5804381981822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>24.78568136090757</v>
+        <v>38.96377592616699</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>334.989882093129</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>154.2498708678728</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>41.87375630188873</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-6.787104211980477e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067231</v>
@@ -31764,28 +31764,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>361.7519118779106</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31916,7 +31916,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
@@ -31931,13 +31931,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -32074,22 +32074,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093093</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359108</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437242</v>
@@ -32101,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742437</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420754</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862119</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946159</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,28 +32548,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>552.0015769888928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>502.2268148619681</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>460.9249101897659</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>344.6306853939237</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>268.1779244693582</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>219.1556674334661</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899073</v>
@@ -35585,7 +35585,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998983</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>8.18116013495035</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>235.5010321525775</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992797</v>
@@ -35749,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754087</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641936</v>
@@ -35977,10 +35977,10 @@
         <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802857</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096281</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>418.0271695745625</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>359.6305704175236</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>322.3705304098917</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>206.7892464195648</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>130.3364854949992</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1289248.955729912</v>
+        <v>1291009.486032697</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283204</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>331.4097589280074</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>255.4387978730001</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -715,7 +715,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>85.77388582790053</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>228.0656025585482</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>267.1758329068651</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>143.9764333632484</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>180.5851733500022</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>140.3578935194477</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>108.9812949757285</v>
       </c>
     </row>
     <row r="9">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428081</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>24.83266606353076</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881257</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.255571502167365</v>
+        <v>56.45752097953178</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.6028762599883</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.1477359514042</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>40.15381658332875</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>6.600826611595375</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487365</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.7122866515512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>138.1441996497202</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>120.7871326503968</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="C43" t="n">
-        <v>132.2740511637357</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7058473537592</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.132475219475</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1490.169958279064</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1490.169958279064</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259409</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y2" t="n">
-        <v>2245.732315283597</v>
+        <v>2382.341170533245</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>880.2242361621296</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C4" t="n">
-        <v>711.2880532342227</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D4" t="n">
-        <v>711.2880532342227</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>880.2242361621296</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>880.2242361621296</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1887.813801820606</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1887.813801820606</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
         <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820606</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>362.0594966154772</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>211.9428572031415</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1744.88528207839</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1455.782415204033</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1455.782415204033</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>1455.782415204033</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X7" t="n">
-        <v>1227.792864306016</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y7" t="n">
-        <v>1007.000285162486</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761617</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>261.3167113269582</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>250.2846652123588</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694706</v>
@@ -5065,13 +5065,13 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.155464951614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167372</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.45752234853</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121634</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121634</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121634</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270434</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2421.879582505987</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2239.024748160891</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5345,40 +5345,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273896</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5506,40 +5506,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5743,46 +5743,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038275</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797676</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910802</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853354</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832656</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.06254548756</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510501</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854699</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648812</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611852</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138343</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703041</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192548</v>
@@ -6229,16 +6229,16 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>267.680263960966</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6694,46 +6694,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7140,7 +7140,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>215.8238677453423</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>215.8238677453423</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194308</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.54258064659092</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>147.359901516045</v>
+        <v>92.15795203868058</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>62.35543909864953</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.22910392194898</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.43691740069059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>211.9838267404992</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>138.8202214113359</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.4949402405077</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>39.70888054695408</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>80.44045370237458</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>44.73700564187209</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>65.75554125013275</v>
       </c>
       <c r="C43" t="n">
-        <v>34.97276993489209</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>939807.5249787408</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>939807.524978741</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>939807.524978741</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939807.5249787413</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
@@ -26322,16 +26322,16 @@
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="F2" t="n">
-        <v>484287.9598140034</v>
-      </c>
       <c r="G2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26343,13 +26343,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140037</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
@@ -26530,40 +26530,40 @@
         <v>293117.1664040072</v>
       </c>
       <c r="E6" t="n">
-        <v>45018.66874656683</v>
+        <v>45331.31007548752</v>
       </c>
       <c r="F6" t="n">
-        <v>370431.1305539211</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="G6" t="n">
-        <v>370431.1305539213</v>
+        <v>370743.7718828428</v>
       </c>
       <c r="H6" t="n">
-        <v>370431.1305539213</v>
+        <v>370743.7718828425</v>
       </c>
       <c r="I6" t="n">
-        <v>370431.1305539213</v>
+        <v>370743.7718828424</v>
       </c>
       <c r="J6" t="n">
-        <v>152899.9281566439</v>
+        <v>153212.5694855651</v>
       </c>
       <c r="K6" t="n">
-        <v>370431.1305539214</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="L6" t="n">
-        <v>370431.1305539215</v>
+        <v>370743.7718828428</v>
       </c>
       <c r="M6" t="n">
-        <v>285376.1026184096</v>
+        <v>285688.7439473309</v>
       </c>
       <c r="N6" t="n">
-        <v>370431.1305539215</v>
+        <v>370743.7718828425</v>
       </c>
       <c r="O6" t="n">
-        <v>370431.1305539215</v>
+        <v>370743.7718828428</v>
       </c>
       <c r="P6" t="n">
-        <v>370431.1305539215</v>
+        <v>370743.7718828427</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>51.32408273547321</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>126.4915721992617</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>60.66007681866864</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>154.6682391049324</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50720871381782</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2.457529283320724</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27827,16 +27827,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>38.96377592616699</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>154.2498708678728</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>277.2566436803251</v>
       </c>
     </row>
     <row r="9">
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-6.787104211980477e-12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779106</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8427442359108</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,28 +32548,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334661</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>235.5010321525775</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096281</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
